--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\reportes mensuales\varios\Proyecto\PAGINA DULCES\Dulceria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CEB68F-D5A8-42C5-BB62-7E07660D7AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A32B90-D660-456F-865C-3635C19EBD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
     <t>piñata color azul, 80 de alto x 80 de ancho</t>
   </si>
   <si>
-    <t>piñatas/piñatabluei.jpg</t>
+    <t>Piñatas/piñatabluei.jpg</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\reportes mensuales\varios\Proyecto\PAGINA DULCES\Dulceria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A32B90-D660-456F-865C-3635C19EBD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A270F0F-6F47-47C1-AA97-BE4FCA198042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>name</t>
   </si>
@@ -67,10 +67,37 @@
     <t>Piñata de Bluei</t>
   </si>
   <si>
-    <t>piñata color azul, 80 de alto x 80 de ancho</t>
-  </si>
-  <si>
-    <t>Piñatas/piñatabluei.jpg</t>
+    <t>Piñatas/bluei.jpg</t>
+  </si>
+  <si>
+    <t>Piñata de Bingo</t>
+  </si>
+  <si>
+    <t>Piñatas/bingo.jpg</t>
+  </si>
+  <si>
+    <t>Piñata de Plim Plim</t>
+  </si>
+  <si>
+    <t>piñata color naranja, 80 de alto por 40 de ancho</t>
+  </si>
+  <si>
+    <t>piñata color azul, 80 de alto por 40 de ancho</t>
+  </si>
+  <si>
+    <t>piñata color roja con blanco, 80 cm de altura por 30 de ancho.</t>
+  </si>
+  <si>
+    <t>Piñatas/plimplim.jpg</t>
+  </si>
+  <si>
+    <t>Piñata de Stich</t>
+  </si>
+  <si>
+    <t>piñata color azul, 80 cm de altura por 30 de ancho.</t>
+  </si>
+  <si>
+    <t>Piñatas/stich.jpg</t>
   </si>
 </sst>
 </file>
@@ -388,7 +415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
@@ -421,13 +448,58 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\reportes mensuales\varios\Proyecto\PAGINA DULCES\Dulceria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEAB258-6902-4BB3-BC35-7A8D614DA730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB92018-B8F4-4DFF-BBB5-D41837A95256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>Piñatas/stich.jpg</t>
+  </si>
+  <si>
+    <t>promo</t>
+  </si>
+  <si>
+    <t>fecha final de promo</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
   </si>
 </sst>
 </file>
@@ -415,15 +424,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +455,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -456,8 +478,14 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -473,8 +501,14 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -490,8 +524,14 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -507,8 +547,14 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -524,8 +570,14 @@
       <c r="E6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -541,8 +593,11 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -558,8 +613,11 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -570,13 +628,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -587,13 +648,16 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -604,13 +668,16 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -626,8 +693,11 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -643,8 +713,11 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -660,8 +733,11 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -677,8 +753,11 @@
       <c r="E15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -694,8 +773,11 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -711,8 +793,11 @@
       <c r="E17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -728,8 +813,11 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -745,8 +833,11 @@
       <c r="E19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -762,8 +853,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -779,8 +873,11 @@
       <c r="E21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -796,8 +893,11 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -813,8 +913,11 @@
       <c r="E23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -830,8 +933,11 @@
       <c r="E24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -847,8 +953,11 @@
       <c r="E25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -864,8 +973,11 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -881,8 +993,11 @@
       <c r="E27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -898,8 +1013,11 @@
       <c r="E28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -915,8 +1033,11 @@
       <c r="E29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -932,8 +1053,11 @@
       <c r="E30" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -949,8 +1073,11 @@
       <c r="E31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -966,8 +1093,11 @@
       <c r="E32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -983,8 +1113,11 @@
       <c r="E33" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1000,8 +1133,11 @@
       <c r="E34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1017,8 +1153,11 @@
       <c r="E35" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -1034,8 +1173,11 @@
       <c r="E36" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1051,8 +1193,11 @@
       <c r="E37" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1068,8 +1213,11 @@
       <c r="E38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -1085,8 +1233,11 @@
       <c r="E39" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>21</v>
       </c>
@@ -1102,8 +1253,11 @@
       <c r="E40" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1119,8 +1273,11 @@
       <c r="E41" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -1136,8 +1293,11 @@
       <c r="E42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>21</v>
       </c>
@@ -1153,8 +1313,11 @@
       <c r="E43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -1170,8 +1333,11 @@
       <c r="E44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1187,8 +1353,11 @@
       <c r="E45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1204,8 +1373,11 @@
       <c r="E46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
@@ -1221,8 +1393,11 @@
       <c r="E47" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>21</v>
       </c>
@@ -1238,8 +1413,11 @@
       <c r="E48" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>21</v>
       </c>
@@ -1255,8 +1433,11 @@
       <c r="E49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>21</v>
       </c>
@@ -1272,8 +1453,11 @@
       <c r="E50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1289,8 +1473,11 @@
       <c r="E51" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1306,8 +1493,11 @@
       <c r="E52" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1323,8 +1513,11 @@
       <c r="E53" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>21</v>
       </c>
@@ -1340,8 +1533,11 @@
       <c r="E54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>21</v>
       </c>
@@ -1357,8 +1553,11 @@
       <c r="E55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1374,8 +1573,11 @@
       <c r="E56" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -1391,8 +1593,11 @@
       <c r="E57" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -1408,8 +1613,11 @@
       <c r="E58" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1425,8 +1633,11 @@
       <c r="E59" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1442,8 +1653,11 @@
       <c r="E60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1459,8 +1673,11 @@
       <c r="E61" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>21</v>
       </c>
@@ -1476,8 +1693,11 @@
       <c r="E62" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>21</v>
       </c>
@@ -1493,8 +1713,11 @@
       <c r="E63" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>21</v>
       </c>
@@ -1510,8 +1733,11 @@
       <c r="E64" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>21</v>
       </c>
@@ -1527,8 +1753,11 @@
       <c r="E65" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -1544,8 +1773,11 @@
       <c r="E66" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>21</v>
       </c>
@@ -1561,8 +1793,11 @@
       <c r="E67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -1578,8 +1813,11 @@
       <c r="E68" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1833,11 @@
       <c r="E69" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1612,8 +1853,11 @@
       <c r="E70" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -1629,8 +1873,11 @@
       <c r="E71" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1646,8 +1893,11 @@
       <c r="E72" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1663,8 +1913,11 @@
       <c r="E73" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -1680,8 +1933,11 @@
       <c r="E74" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1697,8 +1953,11 @@
       <c r="E75" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -1714,8 +1973,11 @@
       <c r="E76" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1731,8 +1993,11 @@
       <c r="E77" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -1747,6 +2012,9 @@
       </c>
       <c r="E78" t="s">
         <v>23</v>
+      </c>
+      <c r="F78">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
